--- a/machine_learning_and_stats/misc/distribution.xlsx
+++ b/machine_learning_and_stats/misc/distribution.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE11C40-261E-4C4C-80C8-CF06F9836A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DA247-A97D-476E-8058-9773E2915455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="228" windowWidth="22386" windowHeight="12978" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss" sheetId="1" r:id="rId1"/>
     <sheet name="Poisson" sheetId="2" r:id="rId2"/>
+    <sheet name="exp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2873,6 +2874,1518 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18874506737466132"/>
+          <c:y val="5.6772935230229984E-2"/>
+          <c:w val="0.7869641698944676"/>
+          <c:h val="0.89515912421775301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$B$2:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6374615061559636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3406400920712787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0976232721880528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89865792823444313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73575888234288467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60238842382440427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49319392788321298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40379303598931088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33059777644317312</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27067056647322546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22160631672466782</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18143590657882502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14854715642866775</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1216201252504359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9574136735727847E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1524407956732381E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6746539920652104E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4647444894585069E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.474154371233114E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.663127777746833E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9991153640955382E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4554679806136851E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0103671489267134E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6459494098040033E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.347589399817091E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1033128841521524E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0331618852253163E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.395727432965845E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0551094907516142E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.957504353332704E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0588612725914568E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3231145463478592E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7207360750957782E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2275502956895987E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.823763931109026E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4931716167533532E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2225055222591403E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0009028668812173E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1946995795956993E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7092525580502132E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4930713994428312E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4973464835769558E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6821158733515774E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0146615019095301E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4681960817335912E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0207880367418684E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6544813111326476E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3545747298170804E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1090319886435428E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.079985952497002E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.4340637368253726E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0864966016807574E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9832019463006673E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0799006822344136E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-452D-4158-AC75-1A0D98CFAF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$C$2:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90483741803595952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81873075307798182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74081822068171788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67032004603563933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60653065971263342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54881163609402639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49658530379140953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44932896411722162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40656965974059917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36787944117144239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33287108369807961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30119421191220214</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27253179303401259</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24659696394160643</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22313016014842979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20189651799465536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18268352405273458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16529888822158645</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14956861922263498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13533528323661262</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12245642825298185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11080315836233381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10025884372280366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0717953289412429E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2084998623898717E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4273578214333807E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7205512739749687E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0810062625217896E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5023220056407161E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9787068367863875E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5049202393557745E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0762203978366156E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6883167401239945E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3373269960326024E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0197383422318449E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.732372244729251E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.4723526470339343E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2370771856165549E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0241911445804346E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8315638888734147E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6572675401761224E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4995576820477691E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3568559012200922E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2277339903068436E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1108996538242306E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0051835744633586E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0952771016958242E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.2297470490200371E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4465830709243511E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.7379469990854791E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0967465655156492E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.5165644207607863E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.99159390691023E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5165809426126824E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-452D-4158-AC75-1A0D98CFAF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$D$2:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47561471225035701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45241870901797976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4303539882125289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40936537653899091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38940039153570244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37040911034085894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35234404485935672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33516002301781966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31881407581088667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30326532985631671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28847490519024338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27440581804701319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26102288838050802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24829265189570474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23618327637050732</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22466448205861075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2137074659743633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2032848298702995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19337051172725056</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18393972058572111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17496887455557764</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16643554184903972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15831838468952655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15059710595610099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14325239843009499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13626589651700624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1296201303229457</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12329848197080316</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11728514404689876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11156508007421484</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.10612398691337145</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10094825899732762</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.6024954310376984E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1341762026367249E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6886971725222487E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2649444110793197E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.8618583156813734E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4784309611317448E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.1137035793256712E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7667641618306282E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.4367451793902061E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.1228214126490925E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8242078886748455E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5401579181166935E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.2699612280932166E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0129421861401874E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7684581107774827E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5358976644706277E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3146793249685289E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.1042499311949435E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9040833000576619E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.7136789107166987E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5325606530214847E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3602756369874934E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-452D-4158-AC75-1A0D98CFAF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$E$2:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-452D-4158-AC75-1A0D98CFAF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1030697583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030699503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030699503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030697583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3033,6 +4546,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4543,6 +6096,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5631,6 +7700,347 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B94A52-BCD8-4A02-9E21-B6458536021B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13718</cdr:x>
+      <cdr:y>0.10031</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29977</cdr:x>
+      <cdr:y>0.2663</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2402B2A0-7B4E-9896-1D73-F4D4FE8044A8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5152238">
+          <a:off x="443845" y="674487"/>
+          <a:ext cx="914404" cy="670565"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=0.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09546</cdr:x>
+      <cdr:y>0.52294</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.25804</cdr:x>
+      <cdr:y>0.68892</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D09AC-1ACB-D6E4-3E8F-445FDEDBC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="4596126">
+          <a:off x="271798" y="3002594"/>
+          <a:ext cx="914363" cy="670510"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14473</cdr:x>
+      <cdr:y>0.74783</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36643</cdr:x>
+      <cdr:y>0.86955</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D09AC-1ACB-D6E4-3E8F-445FDEDBC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2490011">
+          <a:off x="596918" y="4119540"/>
+          <a:ext cx="914363" cy="670510"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -5747,10 +8157,10 @@
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
   <cols>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.71875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7693,11 +10103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C86E8BB-E85C-4A4A-81C1-0874A8F6090C}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.3"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1">
@@ -8630,6 +11040,1037 @@
       <c r="E50">
         <f t="shared" si="7"/>
         <v>0.99997457368176612</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81271760-BF73-4855-89D3-4BDF32D044B0}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>1/B$1*EXP(-$A2/B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:E17" si="0">1/C$1*EXP(-$A2/C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <f>A2+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:E43" si="1">1/B$1*EXP(-$A3/B$1)</f>
+        <v>1.6374615061559636</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.90483741803595952</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.47561471225035701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f t="shared" ref="A4:A42" si="2">A3+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>1.3406400920712787</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.81873075307798182</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.45241870901797976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>1.0976232721880528</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.74081822068171788</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.4303539882125289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.89865792823444313</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.67032004603563933</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.40936537653899091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.73575888234288467</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.38940039153570244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.60238842382440427</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.54881163609402639</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.37040911034085894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.49319392788321298</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.49658530379140953</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.35234404485935672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.40379303598931088</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.44932896411722162</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.33516002301781966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.33059777644317312</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.40656965974059917</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.31881407581088667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.27067056647322546</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.36787944117144239</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.30326532985631671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.22160631672466782</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.33287108369807961</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.28847490519024338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.18143590657882502</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.30119421191220214</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.27440581804701319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.14854715642866775</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.27253179303401259</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.26102288838050802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.1216201252504359</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.24659696394160643</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.24829265189570474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>9.9574136735727847E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.22313016014842979</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.23618327637050732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8.1524407956732381E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.20189651799465536</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.22466448205861075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>6.6746539920652104E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.18268352405273458</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.2137074659743633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>5.4647444894585069E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.16529888822158645</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.2032848298702995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>4.474154371233114E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.14956861922263498</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.19337051172725056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>3.663127777746833E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.13533528323661262</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.18393972058572111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>2.9991153640955382E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.12245642825298185</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.17496887455557764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>2.4554679806136851E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.11080315836233381</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.16643554184903972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>2.0103671489267134E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.10025884372280366</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.15831838468952655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1.6459494098040033E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>9.0717953289412429E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.15059710595610099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1.347589399817091E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>8.2084998623898717E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.14325239843009499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1.1033128841521524E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>7.4273578214333807E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.13626589651700624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>9.0331618852253163E-3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>6.7205512739749687E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.1296201303229457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>7.395727432965845E-3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>6.0810062625217896E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.12329848197080316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>6.0551094907516142E-3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>5.5023220056407161E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.11728514404689876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>4.957504353332704E-3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>4.9787068367863875E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.11156508007421484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>4.0588612725914568E-3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>4.5049202393557745E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.10612398691337145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>3.3231145463478592E-3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>4.0762203978366156E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.10094825899732762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>2.7207360750957782E-3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>3.6883167401239945E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>9.6024954310376984E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>2.2275502956895987E-3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>3.3373269960326024E-2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>9.1341762026367249E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>1.823763931109026E-3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>3.0197383422318449E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>8.6886971725222487E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>1.4931716167533532E-3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>2.732372244729251E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>8.2649444110793197E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>1.2225055222591403E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>2.4723526470339343E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>7.8618583156813734E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>1.0009028668812173E-3</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>2.2370771856165549E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>7.4784309611317448E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>8.1946995795956993E-4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>2.0241911445804346E-2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>7.1137035793256712E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>6.7092525580502132E-4</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1.8315638888734147E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>6.7667641618306282E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <f t="shared" ref="A43:A56" si="3">A42+0.1</f>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>5.4930713994428312E-4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>1.6572675401761224E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>6.4367451793902061E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:E56" si="4">1/B$1*EXP(-$A44/B$1)</f>
+        <v>4.4973464835769558E-4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>1.4995576820477691E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>6.1228214126490925E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>3.6821158733515774E-4</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>1.3568559012200922E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>5.8242078886748455E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>3.0146615019095301E-4</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>1.2277339903068436E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>5.5401579181166935E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>2.4681960817335912E-4</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>5.2699612280932166E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>2.0207880367418684E-4</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>1.0051835744633586E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>5.0129421861401874E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>1.6544813111326476E-4</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>9.0952771016958242E-3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>4.7684581107774827E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>1.3545747298170804E-4</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>8.2297470490200371E-3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>4.5358976644706277E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>1.1090319886435428E-4</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>7.4465830709243511E-3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>4.3146793249685289E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>9.079985952497002E-5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>6.7379469990854791E-3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>4.1042499311949435E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>7.4340637368253726E-5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>6.0967465655156492E-3</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>3.9040833000576619E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>6.0864966016807574E-5</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>5.5165644207607863E-3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>3.7136789107166987E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>4.9832019463006673E-5</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>4.99159390691023E-3</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>3.5325606530214847E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>4.0799006822344136E-5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>4.5165809426126824E-3</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>3.3602756369874934E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71">
+        <f>SUM(B2:B42)</f>
+        <v>11.030280793962904</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:E71" si="5">SUM(C2:C42)</f>
+        <v>10.334180770440325</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>8.9322822982163803</v>
       </c>
     </row>
   </sheetData>

--- a/machine_learning_and_stats/misc/distribution.xlsx
+++ b/machine_learning_and_stats/misc/distribution.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5DA247-A97D-476E-8058-9773E2915455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658C8C0-411D-4C23-9347-304D1581B18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="228" windowWidth="22386" windowHeight="12978" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss" sheetId="1" r:id="rId1"/>
     <sheet name="Poisson" sheetId="2" r:id="rId2"/>
     <sheet name="exp" sheetId="3" r:id="rId3"/>
+    <sheet name="Gauss accumurate" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4386,6 +4391,1249 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gauss accumurate'!$A$11:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gauss accumurate'!$B$11:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.3383022576488537E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9865547139277237E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9194692579146027E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2478027055075143E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1190193011377298E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7268269504576015E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.232219168473021E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7225689390536812E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3840882014648486E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2668190561999247E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4318484119380153E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9525324197758642E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9154515829799772E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0420934814422614E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3582969233685644E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7528300493568578E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2394530294842948E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8327037741601249E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5474592846231535E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3983595980427309E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3990966513188202E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5615814774676776E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8950158300894385E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4049077376887197E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11092083467945585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12951759566589208</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14972746563574524</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1713685920478078</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.19418605498321342</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21785217703255108</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24197072451914381</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26608524989875521</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28969155276148301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31225393336676144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33322460289179973</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35206532676429952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36827014030332328</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38138781546052403</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39104269397545582</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39695254747701175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.39695254747701186</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.3910426939754561</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.38138781546052442</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36827014030332383</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.35206532676430013</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33322460289180045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.31225393336676222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28969155276148384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.26608524989875604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24197072451914464</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21785217703255191</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19418605498321437</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1713685920478088</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14972746563574627</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1295175956658931</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.11092083467945689</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.4049077376888182E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8950158300895329E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.5615814774677664E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3990966513189013E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3983595980428052E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.5474592846232181E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8327037741601828E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.2394530294843448E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7528300493569005E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3582969233686007E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0420934814422914E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9154515829802236E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9525324197760654E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4318484119381723E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.2668190562000492E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.3840882014649419E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7225689390537563E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2322191684730767E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.7268269504580352E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.1190193011380453E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.2478027055077523E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9194692579147713E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.986554713927847E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3383022576489391E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E60-45C0-9864-8BA1286ECE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Gauss accumurate'!$A$11:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.999999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gauss accumurate'!$C$11:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>2.5206379066873243E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8589401643361777E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8454948782639036E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7649641361785093E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3012766841686028E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9131786142823765E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7858613093281374E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0180804778011594E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7406494168548415E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1247376183196923E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1391556674519613E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5823405086457633E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1775937506233502E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9691389089213484E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0112323903636112E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.369529313732177E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1223593630890362E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3618123925733321E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2194516166733459E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5741975451356617E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0140335049399351E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5539431700718176E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.210101317818586E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9996029008275306E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9400936745964033E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0493020213909628E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.3444779780498848E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8417526344073377E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10555438554885417</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12497299104717553</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14675820875043055</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17095528120234485</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19756380619222028</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.22653296146836849</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2577583548050445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.29108081509422434</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32628734777065416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36311436180098633</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.4012531433470386</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.44035741274458406</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48005266749228509</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51994689553242823</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55964215028012931</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.59874641967767483</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63688520122372716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67371221525405944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.70891874793048937</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.74224120821966932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77346660155634539</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80243575683249369</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.82904428182236922</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8532413542742836</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.87502657197753875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.89444517747586016</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.91158203668064097</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92655478324421559</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.93950654281080481</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95059862627875047</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.96000353401643923</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96789854984652879</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97446013132399656</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97985922797531544</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98425758757335824</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98780504685798143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99063775063214166</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99287720366162602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99463003371098291</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99598833063435155</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99703042411579379</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99782196927409184</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99841722251606946</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99886040735726322</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99918708926288324</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99942549808302972</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99959775497693504</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99972097689378236</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99980824516328692</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99986943535629835</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99991191338335339</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99994110807593251</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99996097362307179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E60-45C0-9864-8BA1286ECE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="489279679"/>
+        <c:axId val="489280159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="489279679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489280159"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="489280159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="-0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489279679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4586,6 +5834,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6774,6 +8062,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8041,6 +9832,49 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>741680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>789305</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7201FE3A-3D7F-4882-ADC1-C6A9B53093C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -11053,7 +12887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81271760-BF73-4855-89D3-4BDF32D044B0}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -11079,7 +12913,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:E17" si="0">1/C$1*EXP(-$A2/C$1)</f>
+        <f t="shared" ref="C2:D17" si="0">1/C$1*EXP(-$A2/C$1)</f>
         <v>1</v>
       </c>
       <c r="D2">
@@ -11093,7 +12927,7 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:E43" si="1">1/B$1*EXP(-$A3/B$1)</f>
+        <f t="shared" ref="B3:D43" si="1">1/B$1*EXP(-$A3/B$1)</f>
         <v>1.6374615061559636</v>
       </c>
       <c r="C3">
@@ -11831,7 +13665,7 @@
         <v>4.2000000000000011</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:E56" si="4">1/B$1*EXP(-$A44/B$1)</f>
+        <f t="shared" ref="B44:D56" si="4">1/B$1*EXP(-$A44/B$1)</f>
         <v>4.4973464835769558E-4</v>
       </c>
       <c r="C44">
@@ -12065,7 +13899,7 @@
         <v>11.030280793962904</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:E71" si="5">SUM(C2:C42)</f>
+        <f t="shared" ref="C71:D71" si="5">SUM(C2:C42)</f>
         <v>10.334180770440325</v>
       </c>
       <c r="D71">
@@ -12078,4 +13912,1442 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F267DBF1-A09F-4920-A4B7-E3F6343CBB92}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
+  <cols>
+    <col min="2" max="2" width="12.71875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.38671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>1/SQRT(2*PI())*EXP(-((A1-5)^2)/(2*1))</f>
+        <v>1.4867195147342977E-6</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <f>0.1+A1</f>
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" si="0">1/SQRT(2*PI())*EXP(-((A2-5)^2)/(2*1))</f>
+        <v>2.4389607458933522E-6</v>
+      </c>
+      <c r="C2">
+        <f>C1 +(A2-A1)*B1</f>
+        <v>1.4867195147342977E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="1">0.1+A2</f>
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>3.9612990910320753E-6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="2">C2 +(A3-A2)*B2</f>
+        <v>3.9256802606276505E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6.3698251788670899E-6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>7.8869793516597271E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.0140852065486758E-5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>1.4256804530526815E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.5983741106905475E-5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>2.4397656596013569E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.4942471290053535E-5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>4.0381397702919041E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3.8535196742087129E-5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6.5323868992972573E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>5.8943067756539855E-5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>1.0385906573505969E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8.9261657177132928E-5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>1.6280213349159953E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.3383022576488537E-4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>2.5206379066873243E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.9865547139277237E-4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>3.8589401643361777E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.9194692579146027E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5.8454948782639036E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>4.2478027055075143E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>8.7649641361785093E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>6.1190193011377298E-4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>1.3012766841686028E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>8.7268269504576015E-4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.9131786142823765E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.232219168473021E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>2.7858613093281374E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.7225689390536812E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4.0180804778011594E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.3840882014648486E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>5.7406494168548415E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.2668190561999247E-3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>8.1247376183196923E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4.4318484119380153E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>1.1391556674519613E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>5.9525324197758642E-3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>1.5823405086457633E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7.9154515829799772E-3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>2.1775937506233502E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.0420934814422614E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>2.9691389089213484E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.3582969233685644E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>4.0112323903636112E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.7528300493568578E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>5.369529313732177E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.2394530294842948E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>7.1223593630890362E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.8327037741601249E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>9.3618123925733321E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>3.5474592846231535E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>1.2194516166733459E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>4.3983595980427309E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>1.5741975451356617E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>5.3990966513188202E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>2.0140335049399351E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>6.5615814774676776E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>2.5539431700718176E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>7.8950158300894385E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>3.210101317818586E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>9.4049077376887197E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>3.9996029008275306E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.11092083467945585</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>4.9400936745964033E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.12951759566589208</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>6.0493020213909628E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.14972746563574524</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>7.3444779780498848E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.1713685920478078</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>8.8417526344073377E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.19418605498321342</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>0.10555438554885417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.21785217703255108</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>0.12497299104717553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.24197072451914381</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.14675820875043055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.26608524989875521</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0.17095528120234485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.28969155276148301</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0.19756380619222028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>0.31225393336676144</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0.22653296146836849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0.33322460289179973</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0.2577583548050445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0.35206532676429952</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0.29108081509422434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>0.36827014030332328</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0.32628734777065416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0.38138781546052403</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0.36311436180098633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>0.39104269397545582</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>0.4012531433470386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0.39695254747701175</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0.44035741274458406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0.48005266749228509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.39695254747701186</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>0.51994689553242823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.3910426939754561</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>0.55964215028012931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.38138781546052442</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>0.59874641967767483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.36827014030332383</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>0.63688520122372716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.35206532676430013</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>0.67371221525405944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.33322460289180045</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>0.70891874793048937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.31225393336676222</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>0.74224120821966932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.28969155276148384</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>0.77346660155634539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.26608524989875604</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>0.80243575683249369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.24197072451914464</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>0.82904428182236922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.21785217703255191</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>0.8532413542742836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.19418605498321437</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>0.87502657197753875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.1713685920478088</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>0.89444517747586016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.14972746563574627</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>0.91158203668064097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B101" si="3">1/SQRT(2*PI())*EXP(-((A66-5)^2)/(2*1))</f>
+        <v>0.1295175956658931</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>0.92655478324421559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <f t="shared" ref="A67:A101" si="4">0.1+A66</f>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>0.11092083467945689</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C101" si="5">C66 +(A67-A66)*B66</f>
+        <v>0.93950654281080481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <f t="shared" si="4"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>9.4049077376888182E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>0.95059862627875047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>7.8950158300895329E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>0.96000353401643923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>6.5615814774677664E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>0.96789854984652879</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>5.3990966513189013E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>0.97446013132399656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>4.3983595980428052E-2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>0.97985922797531544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>3.5474592846232181E-2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>0.98425758757335824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>2.8327037741601828E-2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>0.98780504685798143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>2.2394530294843448E-2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>0.99063775063214166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999893</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>1.7528300493569005E-2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>0.99287720366162602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>7.599999999999989</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>1.3582969233686007E-2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>0.99463003371098291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>1.0420934814422914E-2</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>0.99598833063435155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>7.7999999999999883</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>7.9154515829802236E-3</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>0.99703042411579379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>7.8999999999999879</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>5.9525324197760654E-3</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>0.99782196927409184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>7.9999999999999876</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>4.4318484119381723E-3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>0.99841722251606946</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>8.0999999999999872</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>3.2668190562000492E-3</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>0.99886040735726322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999869</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>2.3840882014649419E-3</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>0.99918708926288324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>8.2999999999999865</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>1.7225689390537563E-3</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>0.99942549808302972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999861</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>1.2322191684730767E-3</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>0.99959775497693504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>8.4999999999999858</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>8.7268269504580352E-4</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>0.99972097689378236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>8.5999999999999854</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>6.1190193011380453E-4</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>0.99980824516328692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999851</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>4.2478027055077523E-4</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>0.99986943535629835</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999847</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>2.9194692579147713E-4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>0.99991191338335339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>8.8999999999999844</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>1.986554713927847E-4</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>0.99994110807593251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>8.999999999999984</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>1.3383022576489391E-4</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>0.99996097362307179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>9.0999999999999837</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>8.9261657177138796E-5</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>0.99997435664564827</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999833</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>5.8943067756544036E-5</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>0.99998328281136595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999829</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>3.8535196742089935E-5</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>0.99998917711814161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>9.3999999999999826</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>2.494247129005548E-5</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>0.99999303063781586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>9.4999999999999822</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>1.5983741106906752E-5</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>0.99999552488494492</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>9.5999999999999819</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>1.0140852065487588E-5</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>0.99999712325905565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>9.6999999999999815</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>6.3698251788676566E-6</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>0.99999813734426224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>9.7999999999999812</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>3.9612990910324344E-6</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>0.99999877432678008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>9.8999999999999808</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>2.438960745893586E-6</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>0.99999917045668918</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999805</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>1.4867195147344432E-6</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>0.99999941435276374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/machine_learning_and_stats/misc/distribution.xlsx
+++ b/machine_learning_and_stats/misc/distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658C8C0-411D-4C23-9347-304D1581B18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB53E812-7B7E-4EBD-9528-CA17FE3C268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2244" yWindow="468" windowWidth="20208" windowHeight="12726" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4249,14 +4245,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4317,8 +4311,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4362,12 +4359,7 @@
   <c:spPr>
     <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4392,6 +4384,1514 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18874506737466132"/>
+          <c:y val="5.6772935230229984E-2"/>
+          <c:w val="0.7869641698944676"/>
+          <c:h val="0.89515912421775301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$F$2:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18126924692201818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32967995396436067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45118836390597361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55067103588277844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63212055882855767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69880578808779781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75340303605839354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79810348200534453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83470111177841344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8646647167633873</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8891968416376661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90928204671058754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92572642178566611</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93918993737478207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95021293163213605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95923779602163384</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96662673003967392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97267627755270747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97762922814383446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98168436111126578</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9850044231795223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98772266009693155</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98994816425536647</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99177025295097998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99326205300091452</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99448343557923924</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99548341905738735</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99630213628351705</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99697244525462414</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99752124782333362</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99797056936370432</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99833844272682604</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99863963196245209</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99888622485215517</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99908811803444553</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99925341419162328</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99938874723887039</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99949954856655943</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99959026502102022</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99966453737209748</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99972534643002786</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99977513267582119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99981589420633243</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9998492669249045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99987659019591335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99989896059816286</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99991727593444335</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99993227126350914</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99994454840056779</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99995460007023751</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99996282968131589</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99996956751699162</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99997508399026847</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99997960049658885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81B0-4340-A93F-C1E206503ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$G$2:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5162581964040482E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18126924692201818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25918177931828212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32967995396436067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39346934028736658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45118836390597361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50341469620859047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55067103588277844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59343034025940078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63212055882855767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66712891630192039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69880578808779781</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72746820696598746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75340303605839354</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77686983985157021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79810348200534464</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81731647594726542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83470111177841355</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85043138077736502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86466471676338741</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87754357174701814</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88919684163766621</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89974115627719631</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90928204671058754</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91791500137610127</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92572642178566622</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93279448726025027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93918993737478207</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94497677994359286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95021293163213616</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9549507976064423</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95923779602163384</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96311683259876002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.96662673003967403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96980261657768152</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97267627755270747</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97527647352966063</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97762922814383446</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97975808855419566</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98168436111126589</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98342732459823878</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9850044231795223</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98643144098779911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98772266009693155</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.98889100346175773</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98994816425536647</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99090472289830422</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99177025295097998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99255341692907562</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99326205300091452</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99390325343448438</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99448343557923924</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99500840609308971</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99548341905738735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81B0-4340-A93F-C1E206503ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$H$2:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8770575499285984E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5162581964040482E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13929202357494219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18126924692201818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22119921692859512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25918177931828212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29531191028128656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32967995396436067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36237184837822667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39346934028736658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42305018961951324</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45118836390597361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47795422323898396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50341469620859058</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52763344725898542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55067103588277844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5725850680512734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.593430340259401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61325897654549888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63212055882855778</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65006225088884473</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.6671289163019205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68336323062094695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69880578808779803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71349520313981007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72746820696598746</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74075973935410855</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75340303605839365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76542971190620246</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77686983985157032</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.78775202617325712</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.79810348200534476</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.807950091379246</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81731647594726553</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.82622605654955505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83470111177841355</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8427628336863725</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85043138077736513</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8577259284134866</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86466471676338741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.87126509641219585</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87754357174701814</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88351584222650303</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8891968416376661</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89460077543813565</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8997411562771962</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9046308377844503</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.90928204671058743</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.91370641350062942</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.91791500137610116</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92191833399884682</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.925726421785666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92934878693957035</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.93279448726025016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81B0-4340-A93F-C1E206503ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>exp!$I$2:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-81B0-4340-A93F-C1E206503ECC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1030697583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030699503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030699503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030697583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5874,6 +7374,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8416,6 +9956,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9495,16 +11551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22224</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>52070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9526,6 +11582,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154B5740-2233-4426-BA94-17B4DA18BF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9574,14 +11668,14 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>t</a:t>
+            <a:t>t </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>=0.5</a:t>
+            <a:t>= 0.5</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -9593,12 +11687,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09546</cdr:x>
-      <cdr:y>0.52294</cdr:y>
+      <cdr:x>0.12687</cdr:x>
+      <cdr:y>0.59046</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.25804</cdr:x>
-      <cdr:y>0.68892</cdr:y>
+      <cdr:x>0.28945</cdr:x>
+      <cdr:y>0.75644</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -9613,8 +11707,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="4596126">
-          <a:off x="271798" y="3002594"/>
-          <a:ext cx="914363" cy="670510"/>
+          <a:off x="479189" y="2742886"/>
+          <a:ext cx="758649" cy="670533"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9693,7 +11787,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>t</a:t>
+            <a:t>t </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
@@ -9712,12 +11806,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.14473</cdr:x>
-      <cdr:y>0.74783</cdr:y>
+      <cdr:x>0.16875</cdr:x>
+      <cdr:y>0.74283</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.36643</cdr:x>
-      <cdr:y>0.86955</cdr:y>
+      <cdr:x>0.39045</cdr:x>
+      <cdr:y>0.86455</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -9731,9 +11825,9 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2490011">
-          <a:off x="596918" y="4119540"/>
-          <a:ext cx="914363" cy="670510"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="2109341">
+          <a:off x="695974" y="3395269"/>
+          <a:ext cx="914362" cy="556349"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9812,7 +11906,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>n</a:t>
+            <a:t>t </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
@@ -9833,6 +11927,304 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18799</cdr:x>
+      <cdr:y>0.16403</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.35058</cdr:x>
+      <cdr:y>0.33002</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2402B2A0-7B4E-9896-1D73-F4D4FE8044A8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="17856439">
+          <a:off x="867445" y="388467"/>
+          <a:ext cx="486333" cy="670574"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=0.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39308</cdr:x>
+      <cdr:y>0.1716</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51099</cdr:x>
+      <cdr:y>0.40046</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D09AC-1ACB-D6E4-3E8F-445FDEDBC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19489952">
+          <a:off x="1621203" y="502782"/>
+          <a:ext cx="486303" cy="670533"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44404</cdr:x>
+      <cdr:y>0.25368</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66574</cdr:x>
+      <cdr:y>0.3754</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D09AC-1ACB-D6E4-3E8F-445FDEDBC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19346794">
+          <a:off x="1831355" y="743260"/>
+          <a:ext cx="914362" cy="356626"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2400" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400" kern="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12885,15 +15277,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81271760-BF73-4855-89D3-4BDF32D044B0}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1">
         <v>0.5</v>
       </c>
@@ -12903,8 +15295,17 @@
       <c r="D1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12920,14 +15321,26 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <f>1-EXP(-$A2/F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:H2" si="1">1-EXP(-$A2/G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <f>A2+0.1</f>
         <v>0.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:D43" si="1">1/B$1*EXP(-$A3/B$1)</f>
+        <f t="shared" ref="B3:D43" si="2">1/B$1*EXP(-$A3/B$1)</f>
         <v>1.6374615061559636</v>
       </c>
       <c r="C3">
@@ -12938,14 +15351,26 @@
         <f t="shared" si="0"/>
         <v>0.47561471225035701</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f t="shared" ref="F3:H56" si="3">1-EXP(-$A3/F$1)</f>
+        <v>0.18126924692201818</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>9.5162581964040482E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="3"/>
+        <v>4.8770575499285984E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <f t="shared" ref="A4:A42" si="2">A3+0.1</f>
+        <f t="shared" ref="A4:A42" si="4">A3+0.1</f>
         <v>0.2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3406400920712787</v>
       </c>
       <c r="C4">
@@ -12956,14 +15381,26 @@
         <f t="shared" si="0"/>
         <v>0.45241870901797976</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.32967995396436067</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.18126924692201818</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>9.5162581964040482E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0976232721880528</v>
       </c>
       <c r="C5">
@@ -12974,14 +15411,26 @@
         <f t="shared" si="0"/>
         <v>0.4303539882125289</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.45118836390597361</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.25918177931828212</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.13929202357494219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89865792823444313</v>
       </c>
       <c r="C6">
@@ -12992,14 +15441,26 @@
         <f t="shared" si="0"/>
         <v>0.40936537653899091</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.55067103588277844</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.32967995396436067</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.18126924692201818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73575888234288467</v>
       </c>
       <c r="C7">
@@ -13010,14 +15471,26 @@
         <f t="shared" si="0"/>
         <v>0.38940039153570244</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.63212055882855767</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.39346934028736658</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.22119921692859512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60238842382440427</v>
       </c>
       <c r="C8">
@@ -13028,14 +15501,26 @@
         <f t="shared" si="0"/>
         <v>0.37040911034085894</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.69880578808779781</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.45118836390597361</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.25918177931828212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49319392788321298</v>
       </c>
       <c r="C9">
@@ -13046,14 +15531,26 @@
         <f t="shared" si="0"/>
         <v>0.35234404485935672</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.75340303605839354</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.50341469620859047</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.29531191028128656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40379303598931088</v>
       </c>
       <c r="C10">
@@ -13064,14 +15561,26 @@
         <f t="shared" si="0"/>
         <v>0.33516002301781966</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0.79810348200534453</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.55067103588277844</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.32967995396436067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33059777644317312</v>
       </c>
       <c r="C11">
@@ -13082,14 +15591,26 @@
         <f t="shared" si="0"/>
         <v>0.31881407581088667</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0.83470111177841344</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.59343034025940078</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.36237184837822667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27067056647322546</v>
       </c>
       <c r="C12">
@@ -13100,14 +15621,26 @@
         <f t="shared" si="0"/>
         <v>0.30326532985631671</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0.8646647167633873</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.63212055882855767</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.39346934028736658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22160631672466782</v>
       </c>
       <c r="C13">
@@ -13118,14 +15651,26 @@
         <f t="shared" si="0"/>
         <v>0.28847490519024338</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.8891968416376661</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.66712891630192039</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.42305018961951324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18143590657882502</v>
       </c>
       <c r="C14">
@@ -13136,14 +15681,26 @@
         <f t="shared" si="0"/>
         <v>0.27440581804701319</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.90928204671058754</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.69880578808779781</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.45118836390597361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14854715642866775</v>
       </c>
       <c r="C15">
@@ -13154,14 +15711,26 @@
         <f t="shared" si="0"/>
         <v>0.26102288838050802</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.92572642178566611</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.72746820696598746</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0.47795422323898396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1216201252504359</v>
       </c>
       <c r="C16">
@@ -13172,14 +15741,26 @@
         <f t="shared" si="0"/>
         <v>0.24829265189570474</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.93918993737478207</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.75340303605839354</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0.50341469620859058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9574136735727847E-2</v>
       </c>
       <c r="C17">
@@ -13190,707 +15771,1187 @@
         <f t="shared" si="0"/>
         <v>0.23618327637050732</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.95021293163213605</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.77686983985157021</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0.52763344725898542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1524407956732381E-2</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20189651799465536</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22466448205861075</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0.95923779602163384</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.79810348200534464</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0.55067103588277844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6746539920652104E-2</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18268352405273458</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2137074659743633</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0.96662673003967392</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.81731647594726542</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.5725850680512734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8000000000000005</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4647444894585069E-2</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16529888822158645</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2032848298702995</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.97267627755270747</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.83470111177841355</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0.593430340259401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9000000000000006</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.474154371233114E-2</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14956861922263498</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19337051172725056</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.97762922814383446</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.85043138077736502</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.61325897654549888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.663127777746833E-2</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13533528323661262</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18393972058572111</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.98168436111126578</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.86466471676338741</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.63212055882855778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9991153640955382E-2</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12245642825298185</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17496887455557764</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.9850044231795223</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.87754357174701814</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0.65006225088884473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4554679806136851E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11080315836233381</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16643554184903972</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.98772266009693155</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.88919684163766621</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0.6671289163019205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0103671489267134E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10025884372280366</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15831838468952655</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.98994816425536647</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.89974115627719631</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0.68336323062094695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4000000000000008</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6459494098040033E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0717953289412429E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15059710595610099</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.99177025295097998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.90928204671058754</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0.69880578808779803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000009</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.347589399817091E-2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2084998623898717E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14325239843009499</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.99326205300091452</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.91791500137610127</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0.71349520313981007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.600000000000001</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1033128841521524E-2</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4273578214333807E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13626589651700624</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.99448343557923924</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.92572642178566622</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0.72746820696598746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7000000000000011</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0331618852253163E-3</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7205512739749687E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1296201303229457</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.99548341905738735</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.93279448726025027</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0.74075973935410855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8000000000000012</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.395727432965845E-3</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0810062625217896E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12329848197080316</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.99630213628351705</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.93918993737478207</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0.75340303605839365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9000000000000012</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0551094907516142E-3</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5023220056407161E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11728514404689876</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.99697244525462414</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.94497677994359286</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0.76542971190620246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0000000000000013</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.957504353332704E-3</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9787068367863875E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11156508007421484</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.99752124782333362</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.95021293163213616</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0.77686983985157032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1000000000000014</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0588612725914568E-3</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5049202393557745E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10612398691337145</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.99797056936370432</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.9549507976064423</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>0.78775202617325712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2000000000000015</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3231145463478592E-3</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0762203978366156E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10094825899732762</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.99833844272682604</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.95923779602163384</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0.79810348200534476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3000000000000016</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7207360750957782E-3</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6883167401239945E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6024954310376984E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>0.99863963196245209</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>0.96311683259876002</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0.807950091379246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4000000000000017</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2275502956895987E-3</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3373269960326024E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1341762026367249E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>0.99888622485215517</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>0.96662673003967403</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0.81731647594726553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5000000000000018</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.823763931109026E-3</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0197383422318449E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6886971725222487E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0.99908811803444553</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>0.96980261657768152</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.82622605654955505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6000000000000019</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4931716167533532E-3</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.732372244729251E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2649444110793197E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0.99925341419162328</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.97267627755270747</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.83470111177841355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.700000000000002</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2225055222591403E-3</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4723526470339343E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8618583156813734E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0.99938874723887039</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>0.97527647352966063</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.8427628336863725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.800000000000002</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0009028668812173E-3</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2370771856165549E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4784309611317448E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0.99949954856655943</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0.97762922814383446</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.85043138077736513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9000000000000021</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1946995795956993E-4</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0241911445804346E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1137035793256712E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0.99959026502102022</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0.97975808855419566</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.8577259284134866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000000018</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7092525580502132E-4</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8315638888734147E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7667641618306282E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>0.99966453737209748</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>0.98168436111126589</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>0.86466471676338741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
-        <f t="shared" ref="A43:A56" si="3">A42+0.1</f>
+        <f t="shared" ref="A43:A56" si="5">A42+0.1</f>
         <v>4.1000000000000014</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4930713994428312E-4</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6572675401761224E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4367451793902061E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0.99972534643002786</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0.98342732459823878</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0.87126509641219585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2000000000000011</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44:D56" si="4">1/B$1*EXP(-$A44/B$1)</f>
+        <f t="shared" ref="B44:D56" si="6">1/B$1*EXP(-$A44/B$1)</f>
         <v>4.4973464835769558E-4</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.4995576820477691E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.1228214126490925E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>0.99977513267582119</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>0.9850044231795223</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>0.87754357174701814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6821158733515774E-4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3568559012200922E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.8242078886748455E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>0.99981589420633243</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>0.98643144098779911</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0.88351584222650303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0146615019095301E-4</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2277339903068436E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5401579181166935E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>0.9998492669249045</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>0.98772266009693155</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>0.8891968416376661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4681960817335912E-4</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1108996538242306E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2699612280932166E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>0.99987659019591335</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>0.98889100346175773</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>0.89460077543813565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0207880367418684E-4</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0051835744633586E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.0129421861401874E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>0.99989896059816286</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>0.98994816425536647</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>0.8997411562771962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6544813111326476E-4</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.0952771016958242E-3</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7684581107774827E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>0.99991727593444335</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0.99090472289830422</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>0.9046308377844503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7999999999999989</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3545747298170804E-4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.2297470490200371E-3</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5358976644706277E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>0.99993227126350914</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>0.99177025295097998</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>0.90928204671058743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.8999999999999986</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1090319886435428E-4</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.4465830709243511E-3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3146793249685289E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0.99994454840056779</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0.99255341692907562</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0.91370641350062942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999999982</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.079985952497002E-5</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.7379469990854791E-3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.1042499311949435E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>0.99995460007023751</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>0.99326205300091452</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>0.91791500137610116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0999999999999979</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.4340637368253726E-5</v>
       </c>
       <c r="C53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0967465655156492E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.9040833000576619E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0.99996282968131589</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0.99390325343448438</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>0.92191833399884682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.1999999999999975</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0864966016807574E-5</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5165644207607863E-3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7136789107166987E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>0.99996956751699162</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>0.99448343557923924</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>0.925726421785666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2999999999999972</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.9832019463006673E-5</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.99159390691023E-3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5325606530214847E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>0.99997508399026847</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>0.99500840609308971</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>0.92934878693957035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3999999999999968</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.0799006822344136E-5</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5165809426126824E-3</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3602756369874934E-2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>0.99997960049658885</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>0.99548341905738735</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>0.93279448726025016</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -13899,11 +16960,11 @@
         <v>11.030280793962904</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:D71" si="5">SUM(C2:C42)</f>
+        <f t="shared" ref="C71:D71" si="7">SUM(C2:C42)</f>
         <v>10.334180770440325</v>
       </c>
       <c r="D71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.9322822982163803</v>
       </c>
     </row>
@@ -13918,8 +16979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F267DBF1-A09F-4920-A4B7-E3F6343CBB92}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>

--- a/machine_learning_and_stats/misc/distribution.xlsx
+++ b/machine_learning_and_stats/misc/distribution.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB53E812-7B7E-4EBD-9528-CA17FE3C268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B8CD5-6FB8-472A-B8C9-36FC52B3FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="468" windowWidth="20208" windowHeight="12726" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="396" windowWidth="20190" windowHeight="12726" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gauss" sheetId="1" r:id="rId1"/>
     <sheet name="Poisson" sheetId="2" r:id="rId2"/>
     <sheet name="exp" sheetId="3" r:id="rId3"/>
     <sheet name="Gauss accumurate" sheetId="4" r:id="rId4"/>
+    <sheet name="beta2" sheetId="7" r:id="rId5"/>
+    <sheet name="beta" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +40,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7131,6 +7148,2448 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18630248586132275"/>
+          <c:y val="2.8987492151144347E-2"/>
+          <c:w val="0.7869641698944676"/>
+          <c:h val="0.89515912421775301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta2!$A$3:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta2!$B$3:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE74-4622-A25B-2B1D3B569816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta2!$A$3:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta2!$C$3:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2974710528000173E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3698261319679992E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3746591086080041E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8486377054207984E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1334300000000039E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8342282805248048E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13238735248972805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20555953392844808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29901018342988805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4128768000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54627293437516811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6973324661882877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86329816991308794</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0406451405127684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2252303000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4124598563962885</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5974672368596492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.775294667030529</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9410722189268492</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0901888000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2184502062446092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3222200125358095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3985397236487689</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4452252596961292</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4609375000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4452252596961284</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.398539723648768</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3222200125358077</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2184502062446079</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0901887999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9410722189268466</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7752946670305263</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5974672368596461</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4124598563962858</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2252302999999978</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0406451405127659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86329816991308539</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69733246618828548</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54627293437516544</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41287679999999782</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29901018342988595</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20555953392844625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13238735248972669</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.8342282805247049E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.133429999999938E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8486377054207592E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.3746591086078002E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.369826131967932E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.2974710527990104E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE74-4622-A25B-2B1D3B569816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta2!$A$3:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta2!$D$3:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9434214794270252E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6770637618550841E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3343375191968447E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.854217916345192E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5789129932842039E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5084948062614387E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9114184546453889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3217885148406617E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0714664288755637E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3481678219181992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11918568780402208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20643914960541052</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33374453640685042</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50813990893767003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73374002143059647</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0104121844661154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3328283710874409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6900938764591977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.066075227521869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4404489695081275</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.790384887196788</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0926792955045044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3260814413016986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.473519845912755</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5239410400390607</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4735198459127532</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3260814413016959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0926792955045008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7903848871967827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4404489695081226</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0660752275218646</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6900938764591928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.332828371087436</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0104121844661098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73374002143059247</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50813990893766747</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33374453640684892</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20643914960540868</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11918568780402071</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.3481678219181326E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.0714664288755144E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3217885148406324E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9114184546452761E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5084948062613903E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.578912993284064E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.8542179163449216E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3343375191964754E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6770637618548997E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9434214794260724E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE74-4622-A25B-2B1D3B569816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1030697583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030699503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030699503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030697583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14778054590751213"/>
+          <c:y val="2.8987492151144347E-2"/>
+          <c:w val="0.7869641698944676"/>
+          <c:h val="0.89515912421775301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta2!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta2!$E$3:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1264000000000044E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1534336000000012E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6512793600000097E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1811160063999981E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000036E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8109100646399918E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1818012047360052E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2094627905535991E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9275139492863975E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1264000000000008E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9215915070566338E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9743719061913583E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5528380521871351E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2581644336496605E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4953899999999954E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2384898975268866E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2708155294657599E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0217742840692819E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9060330327870589E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1534336000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8788217933845663E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9917097032260065E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6662822231054403E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1417568319399761E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0742187500000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5901061654396319E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.319157711914132E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3363603800572676E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7388462758934789E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6512793600000189E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2322930245517798E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12682136550675363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17251705690018818</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23253151021729404</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31072277390000136</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.41182968668869535</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.541638943709149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70717778255739672</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.91693534143598621</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1811160064000055</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.511928344695574</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9239135164257994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4343173677683505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0635107361034395</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8354628411000204</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7782729964599788</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9247662550439282</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3131589959065515</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.9878008757630656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA79-4D93-8BB1-19AF756625A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta2!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta2!$F$3:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5193600000000093E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7682406400000053E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0420337664000022E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.358283407359992E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.899999999999996E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9946673807360132E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9545350257663975E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3496796504063997E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7892007991193584E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5055999999999929E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0358369888655339E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2085511036272628E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4196159946864578E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3781371150991422E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5155909999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6317910322446389E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4080536748452815E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1498209494565068E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1267738106126258E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7301504000000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5945634289596356E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8076305313785579E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.477809566254209E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.7369032346016497E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10742187500000022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14677903065596579</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19755787916305556</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26214260129021344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34315783377159653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44341862400000087</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56585021763381782</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71337018097548832</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88872423251612043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0942659304343239</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3316690310000032</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.601559892678257</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.903055748167277</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2331929975496698</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5862278861014936</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9527900160000078</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3188670981122264</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6645971741443688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9628422265996259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1775146401410366</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2616253789999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.1550199969216939</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7817656947088576</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0471495816276888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8342450766862899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA79-4D93-8BB1-19AF756625A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta2!$A$3:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.80000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta2!$G$3:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2170188799999978E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9896998911999937E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3463380531200119E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0291166330879818E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0095000000000071E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6482402356428824E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4028932497971376E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5001118174085159E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6678616381946919E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1100800000000162E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6526308322354706E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1471853226688554E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6605081778099671E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.69470151890044E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5913705500000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5166501745839329E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8505645336148565E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7198567595652033E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2728919252874372E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11678515200000029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16123358451392028</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21807338497895359</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28937124447821122</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3771740326868302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48339843750000072</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60969751195555066</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75730520345837959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.926861340276112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1182212169453742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3302558720000026</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.560651406699723</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8057182705942039</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0602243571964585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3172690291550366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5682188455000041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8027298121869468</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.008885439669879</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1734847859916311</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2825200092826594</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3218887680000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.27839310911085</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1410832921237364</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9030123287880882</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5634748928138067</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1308126894999901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6258773900997832</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0862518484801942</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57134054655518418</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.16845107847118523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA79-4D93-8BB1-19AF756625A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1030697583"/>
+        <c:axId val="1030699503"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1030697583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030699503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030699503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030697583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7414,6 +9873,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10621,6 +13160,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11087,6 +14658,406 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35483</cdr:x>
+      <cdr:y>0.5951</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65235</cdr:x>
+      <cdr:y>0.72187</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D09AC-1ACB-D6E4-3E8F-445FDEDBC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1463437" y="2194024"/>
+          <a:ext cx="1227069" cy="467377"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200" baseline="0">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=9, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>b = 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+            <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.45481</cdr:x>
+      <cdr:y>0.44241</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75233</cdr:x>
+      <cdr:y>0.56918</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B180FC7-A07A-9D3F-7F2E-8DCA3C666E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1875784" y="1631070"/>
+          <a:ext cx="1227069" cy="467377"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200" baseline="0">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=10, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>b = 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+            <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52594</cdr:x>
+      <cdr:y>0.09367</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92486</cdr:x>
+      <cdr:y>0.22044</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E117AF4C-5E0E-B067-519A-07F2EF9089C3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2169152" y="345334"/>
+          <a:ext cx="1645276" cy="467377"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200" baseline="0">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=11, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>b = 1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12267,6 +16238,491 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7484D4F-0051-4052-AB83-86B7000D0036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462915</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39424826-2F1A-4D3F-9DC8-13A34245552B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40287</cdr:x>
+      <cdr:y>0.66338</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70038</cdr:x>
+      <cdr:y>0.79015</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D09AC-1ACB-D6E4-3E8F-445FDEDBC4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1661565" y="2496324"/>
+          <a:ext cx="1227050" cy="477034"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200" baseline="0">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=1, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>b = 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+            <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.404</cdr:x>
+      <cdr:y>0.26892</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70152</cdr:x>
+      <cdr:y>0.39569</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B180FC7-A07A-9D3F-7F2E-8DCA3C666E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1666240" y="1011939"/>
+          <a:ext cx="1227050" cy="477035"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200" baseline="0">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=5, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>b = 5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+            <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3846</cdr:x>
+      <cdr:y>0.05172</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78353</cdr:x>
+      <cdr:y>0.17849</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E117AF4C-5E0E-B067-519A-07F2EF9089C3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1586229" y="194619"/>
+          <a:ext cx="1645285" cy="477035"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" i="1" kern="1200" baseline="0">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>=10, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
+              <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>b = 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+            <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -15279,8 +19735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81271760-BF73-4855-89D3-4BDF32D044B0}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -16980,7 +21436,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3"/>
@@ -18411,4 +22867,2552 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1555600-4BF3-4BDF-9DD7-DFAE8833B521}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.BETA.DIST($A3,C$1, C$2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.BETA.DIST($A3,D$1, D$2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.BETA.DIST($A3,F$1, F$2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.BETA.DIST($A3,G$1, G$2, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>A3+0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:G35" si="0">_xlfn.BETA.DIST($A4,B$1, B$2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>9.2974710528000173E-5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.9434214794270252E-10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.1264000000000044E-16</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5.5193600000000093E-14</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.2170188799999978E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f t="shared" ref="A5:A53" si="1">A4+0.02</f>
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.3698261319679992E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.6770637618550841E-7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.1534336000000012E-13</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.7682406400000053E-11</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.9896998911999937E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6.3746591086080041E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.3343375191968447E-6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.6512793600000097E-12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0420337664000022E-9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>7.3463380531200119E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.8486377054207984E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.854217916345192E-5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.1811160063999981E-10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.358283407359992E-8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.0291166330879818E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.1334300000000039E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.5789129932842039E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000036E-9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>9.899999999999996E-8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.0095000000000071E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.8342282805248048E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.5084948062614387E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.8109100646399918E-9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.9946673807360132E-7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.6482402356428824E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.13238735248972805</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4.9114184546453889E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.1818012047360052E-8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.9545350257663975E-6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5.4028932497971376E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.20555953392844808</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.3217885148406617E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.2094627905535991E-7</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>6.3496796504063997E-6</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.5001118174085159E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.29901018342988805</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.0714664288755637E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.9275139492863975E-7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.7892007991193584E-5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.6678616381946919E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.4128768000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6.3481678219181992E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.1264000000000008E-6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>4.5055999999999929E-5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>8.1100800000000162E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.54627293437516811</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.11918568780402208</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.9215915070566338E-6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.0358369888655339E-4</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.6526308322354706E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.6973324661882877</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.20643914960541052</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.9743719061913583E-6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.2085511036272628E-4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.1471853226688554E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.86329816991308794</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.33374453640685042</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.5528380521871351E-5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4.4196159946864578E-4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>5.6605081778099671E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.0406451405127684</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.50813990893767003</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3.2581644336496605E-5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>8.3781371150991422E-4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.69470151890044E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.2252303000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.73374002143059647</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>6.4953899999999954E-5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.5155909999999991E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.5913705500000014E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.4124598563962885</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.0104121844661154</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.2384898975268866E-4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.6317910322446389E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.5166501745839329E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.5974672368596492</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.3328283710874409</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.2708155294657599E-4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4.4080536748452815E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3.8505645336148565E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.775294667030529</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.6900938764591977</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.0217742840692819E-4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>7.1498209494565068E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>5.7198567595652033E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000006</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.9410722189268492</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.066075227521869</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6.9060330327870589E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.1267738106126258E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>8.2728919252874372E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.0901888000000013</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.4404489695081275</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.1534336000000017E-3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.7301504000000033E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.11678515200000029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.2184502062446092</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.790384887196788</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.8788217933845663E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2.5945634289596356E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.16123358451392028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000011</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.3222200125358095</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>3.0926792955045044</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.9917097032260065E-3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3.8076305313785579E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.21807338497895359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0.46000000000000013</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.3985397236487689</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.3260814413016986</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4.6662822231054403E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>5.477809566254209E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.28937124447821122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000015</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2.4452252596961292</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3.473519845912755</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>7.1417568319399761E-3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>7.7369032346016497E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.3771740326868302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2.4609375000000009</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3.5239410400390607</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.0742187500000029E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.10742187500000022</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.48339843750000072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0.52000000000000013</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2.4452252596961284</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3.4735198459127532</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.5901061654396319E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.14677903065596579</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.60969751195555066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>0.54000000000000015</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2.398539723648768</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>3.3260814413016959</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.319157711914132E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.19755787916305556</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.75730520345837959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000016</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2.3222200125358077</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>3.0926792955045008</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3.3363603800572676E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.26214260129021344</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0.926861340276112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000018</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2.2184502062446079</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.7903848871967827</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>4.7388462758934789E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.34315783377159653</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1.1182212169453742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2.0901887999999995</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.4404489695081226</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>6.6512793600000189E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.44341862400000087</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1.3302558720000026</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000022</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.9410722189268466</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.0660752275218646</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>9.2322930245517798E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.56585021763381782</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1.560651406699723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000024</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.7752946670305263</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.6900938764591928</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0.12682136550675363</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.71337018097548832</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1.8057182705942039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.66000000000000025</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:G53" si="2">_xlfn.BETA.DIST($A36,B$1, B$2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>1.5974672368596461</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1.332828371087436</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0.17251705690018818</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.88872423251612043</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>2.0602243571964585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.68000000000000027</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1.4124598563962858</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>1.0104121844661098</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0.23253151021729404</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.0942659304343239</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>2.3172690291550366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000029</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>1.2252302999999978</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.73374002143059247</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0.31072277390000136</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1.3316690310000032</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>2.5682188455000041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0.72000000000000031</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>1.0406451405127659</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.50813990893766747</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.41182968668869535</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1.601559892678257</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>2.8027298121869468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0.74000000000000032</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>0.86329816991308539</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0.33374453640684892</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.541638943709149</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>1.903055748167277</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>3.008885439669879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>0.76000000000000034</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.69733246618828548</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0.20643914960540868</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0.70717778255739672</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>2.2331929975496698</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>3.1734847859916311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>0.78000000000000036</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0.54627293437516544</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0.11918568780402071</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0.91693534143598621</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>2.5862278861014936</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>3.2825200092826594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000038</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0.41287679999999782</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>6.3481678219181326E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>1.1811160064000055</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>2.9527900160000078</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>3.3218887680000013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>0.8200000000000004</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0.29901018342988595</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>3.0714664288755144E-2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>1.511928344695574</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>3.3188670981122264</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>3.27839310911085</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000041</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0.20555953392844625</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>1.3217885148406324E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>1.9239135164257994</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>3.6645971741443688</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>3.1410832921237364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>0.86000000000000043</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0.13238735248972669</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>4.9114184546452761E-3</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>2.4343173677683505</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>3.9628422265996259</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>2.9030123287880882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>0.88000000000000045</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>7.8342282805247049E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>1.5084948062613903E-3</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>3.0635107361034395</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>4.1775146401410366</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>2.5634748928138067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000047</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>4.133429999999938E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>3.578912993284064E-4</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>3.8354628411000204</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>4.2616253789999998</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>2.1308126894999901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>0.92000000000000048</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>1.8486377054207592E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>5.8542179163449216E-5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>4.7782729964599788</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>4.1550199969216939</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>1.6258773900997832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>0.9400000000000005</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>6.3746591086078002E-3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>5.3343375191964754E-6</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>5.9247662550439282</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>3.7817656947088576</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>1.0862518484801942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000052</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>1.369826131967932E-3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>1.6770637618548997E-7</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>7.3131589959065515</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>3.0471495816276888</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0.57134054655518418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>0.98000000000000054</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>9.2974710527990104E-5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>3.9434214794260724E-10</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>8.9878008757630656</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>1.8342450766862899</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0.16845107847118523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2EA8D3-D018-4120-88B0-322D3D743BCC}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.BETA.DIST($A3,C$1, C$2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.BETA.DIST($A3,D$1, D$2, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <f>A3+0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:D35" si="0">_xlfn.BETA.DIST($A4,B$1, B$2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.1176</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.1524800000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f t="shared" ref="A5:A53" si="1">A4+0.02</f>
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.23039999999999997</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.4236799999999979E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.33840000000000003</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9.5428800000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.16250879999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.24300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.63360000000000016</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.33454079999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.43488479999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.80640000000000012</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.54190079999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.65357279999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.0295999999999998</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.88339679999999987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.23999999999999996</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.0943999999999998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.99809279999999956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.1544000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.1105327999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.2096</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.2192768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.3056000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.4204927999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.3464000000000003</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.5106608000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.3824000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.5925248000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000006</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.4136000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.6652208000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.7280000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.4616000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.7802288000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000011</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.4784000000000002</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.8213888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0.46000000000000013</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1.4904000000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.8510768000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000015</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.4976</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.8690048000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>0.52000000000000013</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.4976</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.8690047999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>0.54000000000000015</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.4903999999999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.8510767999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000016</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.4783999999999999</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.8213887999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000018</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.4616</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.7802287999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.4399999999999997</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.7279999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000022</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.4135999999999997</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1.6652207999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000024</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.3823999999999996</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1.592524799999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0.66000000000000025</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:D53" si="2">_xlfn.BETA.DIST($A36,B$1, B$2, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>1.3463999999999998</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1.510660799999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0.68000000000000027</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>1.3055999999999994</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>1.4204927999999988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000029</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>1.2599999999999993</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>1.3229999999999986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0.72000000000000031</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>1.2095999999999993</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>1.2192767999999985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>0.74000000000000032</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>1.1543999999999992</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>1.1105327999999981</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>0.76000000000000034</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>1.0943999999999992</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0.99809279999999811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>0.78000000000000036</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>1.0295999999999987</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0.88339679999999776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000038</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0.95999999999999863</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0.76799999999999768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>0.8200000000000004</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0.8855999999999985</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0.65357279999999773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000041</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0.80639999999999823</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0.54190079999999763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>0.86000000000000043</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0.72239999999999827</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0.43488479999999785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>0.88000000000000045</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0.63359999999999805</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0.33454079999999786</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000047</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>0.53999999999999793</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0.24299999999999808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>0.92000000000000048</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>0.44159999999999755</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>0.16250879999999815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>0.9400000000000005</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>0.33839999999999731</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>9.5428799999998482E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000052</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>0.23039999999999713</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>4.423679999999889E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>0.98000000000000054</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>0.11759999999999687</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>1.1524799999999382E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979B81CA-0634-41EA-B035-7463B64104CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E88CC3-A140-4375-8FAD-F0C84D612B4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/machine_learning_and_stats/misc/distribution.xlsx
+++ b/machine_learning_and_stats/misc/distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973B8CD5-6FB8-472A-B8C9-36FC52B3FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437B733-8A49-4163-8A84-928CC571A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="612" yWindow="396" windowWidth="20190" windowHeight="12726" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8331,7 +8331,7 @@
         <c:crossAx val="1030697583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -22873,8 +22873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1555600-4BF3-4BDF-9DD7-DFAE8833B521}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
